--- a/Bill Sheet.xlsx
+++ b/Bill Sheet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,14 +456,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Printing</t>
+          <t>Typing</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="3">
@@ -472,17 +472,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Photocopy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Bill</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$210</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$3000</t>
         </is>
       </c>
     </row>
